--- a/data/hotels_by_city/Houston/Houston_shard_266.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_266.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="669">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d7791774-Reviews-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
   </si>
   <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Hampton-Inn-Houston-I-10-East.h10489823.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1915 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r602116515-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>7791774</t>
+  </si>
+  <si>
+    <t>602116515</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completely happy with our stay and breakfast. One of the top hotels I've ever experienced. There was even enough space for my girls to move around in the room! Definitely will be visiting this hotel location again if I'm passing through. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r599871819-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>599871819</t>
+  </si>
+  <si>
+    <t>07/26/2018</t>
+  </si>
+  <si>
+    <t>Our preferred overnight in Houston: the Hampton Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything is in place here for a comfortable stay! Professionally maintained secure property.  Full breakfast. Fresh coffee 24/7. Professional but friendly welcoming staff. Our second stay and we’ll be back. </t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r595563362-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595563362</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Great Stay!!!</t>
+  </si>
+  <si>
+    <t>GREAT STAFF!! Very warm welcome and they genuinely want you to feel at home! Hot coffee ALL day!! Property security spot on! Their limited entry after 8 p.m. policy is a grand idea. The parking lot patrolled throughout the evening!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r591113428-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>591113428</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Astros game</t>
+  </si>
+  <si>
+    <t>Great location, good restaurants nearby, very clean. Only problem was a group was having a party with loud music in parking lot. I don’t feel it should be allowed. It was outside our window; however it was taken care of relatively quickly</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r588815364-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>588815364</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Stay at the Hampton Houston East. Close to many restaurants within 10 mins from the hotel and about 10 mins from Downtown Houston, Port of Houston Ship Channel. Clean comfortable beds and great staff. Break Host was there for all my needs.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r585187365-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>585187365</t>
+  </si>
+  <si>
+    <t>06/04/2018</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>We had a great experience here! The staff was amazing, the room was clean, and the price was great!! We would definitely stay here again! It was a short ride to and from Minute Maid Park.  Houston has awesome people!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r578112033-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>578112033</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>I'd stay here again</t>
+  </si>
+  <si>
+    <t>I have stayed at a dozen different hotels on the outskirts of Houston over the past 4 years for work, and this is the ONLY ONE i would book again! Ask for a room on the far side of the hotel away from I-10, though, in particular room 436 (highest floor, furthest away room)...</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r575950131-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575950131</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Excellent property / easy to reach</t>
+  </si>
+  <si>
+    <t>Good Hampton quality at its best. Especially the breakfast service staff was making the difference (compared to others). Also FrontDesk very polite and helpful!Keep it up!We will return, when we will be in the area...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r575918819-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>575918819</t>
+  </si>
+  <si>
+    <t>Definitely The Place To Stay</t>
+  </si>
+  <si>
+    <t>I have a wonderful stay here. The staff members are very friendly, helpful and caring. The cleanliness of this hotel was excellent, from the lobby and throughout the hotel. They have an excellent selection for complimentary breakfast. One of the best hotels I have stayed in.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r567869283-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567869283</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Good on the whole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My only complaint at all was that the fitness facility is locked prior to 6 a.m.  It is not in a location that could cause disturbance to other guests but I was not able to exercise at a time convenient to me because the staff told me it was Hampton's corporate rules. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r567473340-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567473340</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>New, clean, affordable</t>
+  </si>
+  <si>
+    <t>The hotel itself is new, updated, and very clean- parking lot, lobby, breakfast area, hallways, elevators, rooms and bathrooms. The hotel was very quiet and we had a very comfortable, enjoyable stay. The staff was friendly and very helpful. In regards to some reviews saying the area is sketchy, I would disagree. The parking lot and hotel has a fence around most of the property making it feel safe and secure. There’s also a police officer on duty at night. We traveled with 3 young kids and never felt unsafe. The area itself looks a bit rundown but the hotel was great. Food choices around the area are limited- a Chili’s, McDonald’s, and a few local Mexican restaurants. We were able to find a nice Jason’s Deli nearby since we didn’t want heavy, fast food. The hotel is conveniently located just off I-10 which made getting to places very easy. It was about a 20-25 minutes drive to most attractions like the zoo, children’s museum, downtown aquarium, depending on traffic. The morning breakfast was pretty great with lots of choices. I would stay here again based on the very clean rooms and the affordable price. My only complaint was that we were told the outdoor pool was heated so we packed swimsuits. It was not heated and freezing cold (we travelled in March). The hot tub was full of bugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself is new, updated, and very clean- parking lot, lobby, breakfast area, hallways, elevators, rooms and bathrooms. The hotel was very quiet and we had a very comfortable, enjoyable stay. The staff was friendly and very helpful. In regards to some reviews saying the area is sketchy, I would disagree. The parking lot and hotel has a fence around most of the property making it feel safe and secure. There’s also a police officer on duty at night. We traveled with 3 young kids and never felt unsafe. The area itself looks a bit rundown but the hotel was great. Food choices around the area are limited- a Chili’s, McDonald’s, and a few local Mexican restaurants. We were able to find a nice Jason’s Deli nearby since we didn’t want heavy, fast food. The hotel is conveniently located just off I-10 which made getting to places very easy. It was about a 20-25 minutes drive to most attractions like the zoo, children’s museum, downtown aquarium, depending on traffic. The morning breakfast was pretty great with lots of choices. I would stay here again based on the very clean rooms and the affordable price. My only complaint was that we were told the outdoor pool was heated so we packed swimsuits. It was not heated and freezing cold (we travelled in March). The hot tub was full of bugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r566274589-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566274589</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Diamond in the rough</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed at this location for a work related trip to Houston. I was a little concerned when I looked at a map and saw the area the training and accommodations were going to be in. When I pulled into the parking lot of the hotel my concerns were lessened by the neat and clean appearance of the grounds. Upon arrival the staff exceeded all my expectations and my stay was pleasant and comfortable. I was pleasantly surprised by this hotel and will certainly stay here again if given the chance.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r557757260-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557757260</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Adequate with some negatives</t>
+  </si>
+  <si>
+    <t>Basic, newer Hampton Inn, although a bit sub-par because the room didn't have a walk-in shower.  No one uses the tub, folks, and I don't want to touch a shower curtain. The biggest oversight is the awful lighting in the room.  Whoever thought that putting in bright, white florescent bulbs in all the fixtures would be nice, really needs a lesson in hospitality 101.  They are stark, unsettling and make the room feel cheap and uncomfortable.  Lighting should make the room feel warm and inviting.  It was awful walking in after a late flight and flipping on blinding, white light.  I know, it seems minor but it speaks to a lack of attention to detail and ruins the feel of the room.  The water pressure was also poor and the gym, while large, only had one elliptical (broken) and they were out of sanitary wipes (gross).Other than that, the bed was reasonably comfortable.  The staff was very friendly and nice.  The breakfast was adequate and parking was free and easy.  I'll look elsewhere in the future though.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Basic, newer Hampton Inn, although a bit sub-par because the room didn't have a walk-in shower.  No one uses the tub, folks, and I don't want to touch a shower curtain. The biggest oversight is the awful lighting in the room.  Whoever thought that putting in bright, white florescent bulbs in all the fixtures would be nice, really needs a lesson in hospitality 101.  They are stark, unsettling and make the room feel cheap and uncomfortable.  Lighting should make the room feel warm and inviting.  It was awful walking in after a late flight and flipping on blinding, white light.  I know, it seems minor but it speaks to a lack of attention to detail and ruins the feel of the room.  The water pressure was also poor and the gym, while large, only had one elliptical (broken) and they were out of sanitary wipes (gross).Other than that, the bed was reasonably comfortable.  The staff was very friendly and nice.  The breakfast was adequate and parking was free and easy.  I'll look elsewhere in the future though.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r555924172-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555924172</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Convenient and clean location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy to get to Houston center from here.    All you have come to expect from a Hampton Inn.  Clean, comfortable and friendly staff.    Would stay here again but was a bit disappointed in the big city.  Not a lot to do but could of been time of year.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r554248639-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554248639</t>
+  </si>
+  <si>
+    <t>01/16/2018</t>
+  </si>
+  <si>
+    <t>Great little tucked away spot!</t>
+  </si>
+  <si>
+    <t>This Hampton Inn was a surprise.  Don't be turned off by the industrial area surrounding the hotel. The staff was very friendly and the hotel was very clean.  Security is always present.  Breakfast was standard Hampton Inn, but not awful.  The little lady making breakfast was the nicest ever!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r549885746-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>549885746</t>
+  </si>
+  <si>
+    <t>12/28/2017</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Great room and the location is just fantastic.All the staff member is just Gem to be around it like home away from home.I must say a job well done for my Room Attendant.....Keep doing a fantastic jobs with those room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r547317137-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547317137</t>
+  </si>
+  <si>
+    <t>12/15/2017</t>
+  </si>
+  <si>
+    <t>Excellent Hampton Inn</t>
+  </si>
+  <si>
+    <t>Great location near downtown Houston TX - Plenty of parking - staff very friendly - like a new hotel the rooms are well styled with the latest design and features - breakfast selection was great - digital key is the way to go</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r546890585-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>546890585</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of my best stays with Hilton property's. The staff met my expectations and beyond. I was not disappointed at all. The breakfast was very filling and had a good selection of foods. I would recommend this property highly! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r543943763-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543943763</t>
+  </si>
+  <si>
+    <t>11/27/2017</t>
+  </si>
+  <si>
+    <t>Highly recommended!</t>
+  </si>
+  <si>
+    <t>I stayed seven days at this hotel and could not be happier! It is conveniently located, has a wonderful staff, and the facility itself is very nice as well. The breakfast is good every day too! The few times I needed assistance from a staff member, they were happy to help!</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r542360268-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>542360268</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>These folks focus on good customer service. If you need a good place for a meeting or conference, you can't go wrong here. A bit of a drive from the Hobby Airport, but even during rush hour traffic it goes very quick. Just a great place to do business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r541993868-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541993868</t>
+  </si>
+  <si>
+    <t>11/19/2017</t>
+  </si>
+  <si>
+    <t>Amazing Hotel</t>
+  </si>
+  <si>
+    <t>We had to stay one night in Houston before catching our flight the next day. Hampton Inn by Hilton turned out to be a great choice. We were not really expecting much, but surprisingly, the hotel surpassed all expectations. It was clean and had friendly staff. The double bed rooms were spacious and clean. The bed and pillows were so comfy, they really helped us in getting a good night's sleep. The washrooms were not that bad either with hot water and plenty of towels.Besides, the wifi worked great 24/7. There is a pool outside too. The hotel also offers laundry room and ice room facility. Morning breakfast is complimentary from 6-10 am. Though their breakfast menu was simple, but it was decent to kick the day. The only negative is the hotel's location as the vicinity does not seem like a very upscale area with probably security issues. Also, it is situated a lil before main Houston.All in all, would recommend anyone to stay at Hampton Inn because its overall great service.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had to stay one night in Houston before catching our flight the next day. Hampton Inn by Hilton turned out to be a great choice. We were not really expecting much, but surprisingly, the hotel surpassed all expectations. It was clean and had friendly staff. The double bed rooms were spacious and clean. The bed and pillows were so comfy, they really helped us in getting a good night's sleep. The washrooms were not that bad either with hot water and plenty of towels.Besides, the wifi worked great 24/7. There is a pool outside too. The hotel also offers laundry room and ice room facility. Morning breakfast is complimentary from 6-10 am. Though their breakfast menu was simple, but it was decent to kick the day. The only negative is the hotel's location as the vicinity does not seem like a very upscale area with probably security issues. Also, it is situated a lil before main Houston.All in all, would recommend anyone to stay at Hampton Inn because its overall great service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r539297144-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>539297144</t>
+  </si>
+  <si>
+    <t>11/07/2017</t>
+  </si>
+  <si>
+    <t>1RWright- Business Trip</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is an excellent hotel for a stay while on business when in the area of this Houston hotel location. This hotel was all one would expect for a quality hotel- comfort, very clean, excellent complimentary breakfast, convenient parking, great road access.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r538646854-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538646854</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Clean, quiet, well situated and friendly</t>
+  </si>
+  <si>
+    <t>This hotel lived up to my expectations of the standard Hampton Inn experience.  Good proximity to downtown.  Right off 10 freeway.  Hotel was clean and quiet.  Staff was great.  My only two gripes, and they are very minor, are no digital key and no room safe.  I would gladly stay here again.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r533441370-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533441370</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Family Weekend @ UH</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times over the last 2 Year’s and have been highly satisfied each time.  The staff is outstanding (front desk, house keeping, and breakfast dining) and work hard to ensure your stay is the best possible.  If you experience any issues / problems they will take care of it quickly and to your satisfaction.  Very clean and well maintained.  The location is ideal because you can get downtown quickly while avoiding heavy traffic when going out to eat.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r516925804-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516925804</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Awesome service by staff!!!</t>
+  </si>
+  <si>
+    <t>I was happy with the staff, but the Internet capabilities were lacking. The customer service made me reflect on why I became an Hilton Honors member, and I am happy I did. The staff, all of them were extremely helpful.  This trip made me want to make the Hilton properties my first choice of hotels again.  At one point, I was a Diamond member but services went down.  This trip gives me hope again.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r515933579-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515933579</t>
+  </si>
+  <si>
+    <t>08/21/2017</t>
+  </si>
+  <si>
+    <t>Relaxing stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very friendly and helpful staff. Free continental breakfast was a meal in itself. Rooms were standard &amp; comfortable. Thermostat was very hard to get regulated right but we put up with it. Would definitely recommend. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r514942533-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>514942533</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>This is a new hotel and it shows. Modern furnishings, nice decor, very clean and friendly staff made our 5 night stay here terrific. Our room was lovely with 2 comfortable beds, a bar fridge and microwave. The bathroom was spacious and modern.There is a small pool, two patio tables and chairs and 4 lounge chairs. We were the only ones using the pool so it felt like it was a private pool. There is a fitness room with treadmills, an elliptical, yoga mats, a yoga ball, medicine balls, free weights and a different but good universal gym. Breakfast was free and not bad. Rosario the kitchen staff was super and there was bacon, sausages, breakfast potato, hard boiled eggs, oatmeal, waffles, bagels and sweets, fruit, yogurt, and juices. The staff were super nice but there was little allergy information on the products and one of my children has a peanut allergy. We learned the waffle mix was safe but there were no ingredients on the sausages or breads. We had him stick to the small boxes of cold cereal, fruit and yogurt which was still very filling. I mention this only as a future consideration for the hotel as I am certain we aren't the only family with food allergies travelling. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new hotel and it shows. Modern furnishings, nice decor, very clean and friendly staff made our 5 night stay here terrific. Our room was lovely with 2 comfortable beds, a bar fridge and microwave. The bathroom was spacious and modern.There is a small pool, two patio tables and chairs and 4 lounge chairs. We were the only ones using the pool so it felt like it was a private pool. There is a fitness room with treadmills, an elliptical, yoga mats, a yoga ball, medicine balls, free weights and a different but good universal gym. Breakfast was free and not bad. Rosario the kitchen staff was super and there was bacon, sausages, breakfast potato, hard boiled eggs, oatmeal, waffles, bagels and sweets, fruit, yogurt, and juices. The staff were super nice but there was little allergy information on the products and one of my children has a peanut allergy. We learned the waffle mix was safe but there were no ingredients on the sausages or breads. We had him stick to the small boxes of cold cereal, fruit and yogurt which was still very filling. I mention this only as a future consideration for the hotel as I am certain we aren't the only family with food allergies travelling. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r509775239-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509775239</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Average Hampton Inn</t>
+  </si>
+  <si>
+    <t>Overall this is a good basic Hilton property.   The pool is very small and the bed was worn.  The staff was great and the breakfast was great as well.   Location is ok but tough getting to it if you are not from Houston</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r505898390-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505898390</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>A must</t>
+  </si>
+  <si>
+    <t>Hotel is fairly new...clean comfortable and the staff are super friendly! Stayed in the 4th floor and it was very quiet. Daily breakfast was more than sufficient and the breakfast room was clean with staff on hand.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r499392507-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>499392507</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>Hampton Rules</t>
+  </si>
+  <si>
+    <t>My stay at the Hampton was great one. I would recommend to anyone. The staff were very hospitable and kind. Hot or cold breakfast as a choice. Go and experience a good night. I think you will be pleasantly surprise.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r492912398-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492912398</t>
+  </si>
+  <si>
+    <t>06/13/2017</t>
+  </si>
+  <si>
+    <t>excellent stay</t>
+  </si>
+  <si>
+    <t>we called over the phone 11:00pm 10 minutes before we got to the hotel to reserve a room and with no issues the phone call was handled well and the front desk service even better. The hotel was very nice and the room set up was excellent. The bathroom shower very spacious!</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r485781905-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485781905</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>Another Great Hampton stay</t>
+  </si>
+  <si>
+    <t>Hostess was very pleasant, and check in went smooth, room was immaculate, noise free, Breakfast was fresh, hot, great selection as always. I come to Houston quite a bit and always choose Hampton inn.!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r485816741-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>485816741</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>very clean and quiet hotel,beds were comfortable breakfast was good and staff was friendly.I will definitely recommended persons to visit this hotels and to try the waffle with strawberry syrup with whipped cream on top ,with fresh fruits</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r477283115-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>477283115</t>
+  </si>
+  <si>
+    <t>04/19/2017</t>
+  </si>
+  <si>
+    <t>Clean and curtious</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff is really friendly,but the number one thing is that this hotel is super clean. I've stayed in 2 different rooms and both have had a microwave and refrigerator. Perfect sized tv, and awesome wifi in both rooms. Everything is clean, and well taken care of. Breakfast is what you grow to expect from the Hampton hotels. The atmosphere is awesome, and my room doesn't smell awuful +10! If your in the area, you'd be crazy not use them for your stay. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r476210415-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476210415</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>NICE HOTEL</t>
+  </si>
+  <si>
+    <t>Checked in this past Friday night ... easy checkin -- room 425 ... comfortable bed // great television // wish the pillows weren't so soft.Great shower with LOTS of light in the bathroom and rhe room too.Breakfast was fabulous ... eggs / waffles / bagels / coffee, etc.  Guy checking me out was very nice and friendly.  Highly recommend this property!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r473661579-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>473661579</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Great property</t>
+  </si>
+  <si>
+    <t>I love the newly updated hotel! The staff was friendly and helpful. The breakfast items could have been better... I'm a picky eater lol. The gym was nice and roomy, the pool was nice as well.  I enjoyed my stay and will stay again in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r471012380-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471012380</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff and excellent customer service</t>
+  </si>
+  <si>
+    <t>The staff at this location was very professional and accommodating to the needs of me and my family. The staff was very quick to provide extras requested by my family and they were personable and easy to talk to.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r470205447-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>470205447</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Will not stay again...</t>
+  </si>
+  <si>
+    <t>This hotel is so so honestly. Maybe it is because l have stayed at many across the US so maybe as a Hilton Honors member my standards are now high as l associate Hampton with excellence. Now in regards to this particular hotel, when l arrived on Friday, Ray the receptionist was very personable and friendly so l felt we were off to a good start since some reviews l read commended the customer service. However this morning we left towels on the floor meaning we wanted fresh towels. We did get fresh towels but the House keeper then folded the wet floor towel mat and placed it back on the shower. Of course l needed a fresh one so l called the front desk and a girl called Shaunte answered the phone with a very flat, unpersonate 'l am busy, you are disturbing me' affect. I told her that l needed one floor towel and mouthwash. Seeing it is 1.52am i kindly asked if she would bring it to my room. She told me she was the only one at the desk. Due to my many previous stays at the Hampton i knew that she could have brought them to me because not only was it 1.52am and pretty quiet but most receptionists are just courtesous enough to do so especially at 1.52am So i got out of bed and went downstairs to get them. As l rightfully suspected,...This hotel is so so honestly. Maybe it is because l have stayed at many across the US so maybe as a Hilton Honors member my standards are now high as l associate Hampton with excellence. Now in regards to this particular hotel, when l arrived on Friday, Ray the receptionist was very personable and friendly so l felt we were off to a good start since some reviews l read commended the customer service. However this morning we left towels on the floor meaning we wanted fresh towels. We did get fresh towels but the House keeper then folded the wet floor towel mat and placed it back on the shower. Of course l needed a fresh one so l called the front desk and a girl called Shaunte answered the phone with a very flat, unpersonate 'l am busy, you are disturbing me' affect. I told her that l needed one floor towel and mouthwash. Seeing it is 1.52am i kindly asked if she would bring it to my room. She told me she was the only one at the desk. Due to my many previous stays at the Hampton i knew that she could have brought them to me because not only was it 1.52am and pretty quiet but most receptionists are just courtesous enough to do so especially at 1.52am So i got out of bed and went downstairs to get them. As l rightfully suspected, Shaunte was on her cell phone sitting in an office that is somewhat behind the reception desk. Matter of fact l had to make my presence known as she was engrossed in whatever she was doing on her cellphone. So really she could have brought the towels. This experience with this lady alerts me that Customer Service may be good but some of their staff still need coaching/reorientation as l do not think it is appropriate to not only tell a guest you are busy when you are not but really to be on your cell phone at the reception desk. I havent had their breakfast yet i am here for one more day so l will try it. The hotel itself is nicely decorated and the room is nice. It is quiet as l am on the 4th floor but l did feel sorry for the people on the 2nd floor as it appeared that there was a pool party going on.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris J, General Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is so so honestly. Maybe it is because l have stayed at many across the US so maybe as a Hilton Honors member my standards are now high as l associate Hampton with excellence. Now in regards to this particular hotel, when l arrived on Friday, Ray the receptionist was very personable and friendly so l felt we were off to a good start since some reviews l read commended the customer service. However this morning we left towels on the floor meaning we wanted fresh towels. We did get fresh towels but the House keeper then folded the wet floor towel mat and placed it back on the shower. Of course l needed a fresh one so l called the front desk and a girl called Shaunte answered the phone with a very flat, unpersonate 'l am busy, you are disturbing me' affect. I told her that l needed one floor towel and mouthwash. Seeing it is 1.52am i kindly asked if she would bring it to my room. She told me she was the only one at the desk. Due to my many previous stays at the Hampton i knew that she could have brought them to me because not only was it 1.52am and pretty quiet but most receptionists are just courtesous enough to do so especially at 1.52am So i got out of bed and went downstairs to get them. As l rightfully suspected,...This hotel is so so honestly. Maybe it is because l have stayed at many across the US so maybe as a Hilton Honors member my standards are now high as l associate Hampton with excellence. Now in regards to this particular hotel, when l arrived on Friday, Ray the receptionist was very personable and friendly so l felt we were off to a good start since some reviews l read commended the customer service. However this morning we left towels on the floor meaning we wanted fresh towels. We did get fresh towels but the House keeper then folded the wet floor towel mat and placed it back on the shower. Of course l needed a fresh one so l called the front desk and a girl called Shaunte answered the phone with a very flat, unpersonate 'l am busy, you are disturbing me' affect. I told her that l needed one floor towel and mouthwash. Seeing it is 1.52am i kindly asked if she would bring it to my room. She told me she was the only one at the desk. Due to my many previous stays at the Hampton i knew that she could have brought them to me because not only was it 1.52am and pretty quiet but most receptionists are just courtesous enough to do so especially at 1.52am So i got out of bed and went downstairs to get them. As l rightfully suspected, Shaunte was on her cell phone sitting in an office that is somewhat behind the reception desk. Matter of fact l had to make my presence known as she was engrossed in whatever she was doing on her cellphone. So really she could have brought the towels. This experience with this lady alerts me that Customer Service may be good but some of their staff still need coaching/reorientation as l do not think it is appropriate to not only tell a guest you are busy when you are not but really to be on your cell phone at the reception desk. I havent had their breakfast yet i am here for one more day so l will try it. The hotel itself is nicely decorated and the room is nice. It is quiet as l am on the 4th floor but l did feel sorry for the people on the 2nd floor as it appeared that there was a pool party going on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r467075101-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>467075101</t>
+  </si>
+  <si>
+    <t>03/13/2017</t>
+  </si>
+  <si>
+    <t>Beautiful place to stay in Houston</t>
+  </si>
+  <si>
+    <t>Great decoration into the reception and rooms. Everything was brand new . The stuff was really friendly and helpful . The breakfast was adequate enough with great variety of foods to choose .Worth to stay there !</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r462944355-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>462944355</t>
+  </si>
+  <si>
+    <t>02/26/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right off the hwy! Enjoyed my stay everything was right at my fingertips. Clean hotel and has great staff. Breakfast was very neat and ready to serve early that morning with plenty of options available. </t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r459066407-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>459066407</t>
+  </si>
+  <si>
+    <t>02/12/2017</t>
+  </si>
+  <si>
+    <t>horrible- do not stay there</t>
+  </si>
+  <si>
+    <t>On February 3, 2017, I had the unfortunate pleasure of being a guest at one of your subpar hotels in_Hampton Inn HoustonI-10 East.After checking in I noticed the room I was assigned to was not clean. I addressed the matter with the staff at the front desk and I was given a generic response "room service will clean the room. It took room service two days to clean the room. Due to the front desk nonchalant attitude, I began to break out due to the unsanitary conditions. The type of customer service being provided at your establishment is extremely unacceptable and I am demanding to be compensated in the form of a full refund as a result of it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris J, General Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded February 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2017</t>
+  </si>
+  <si>
+    <t>On February 3, 2017, I had the unfortunate pleasure of being a guest at one of your subpar hotels in_Hampton Inn HoustonI-10 East.After checking in I noticed the room I was assigned to was not clean. I addressed the matter with the staff at the front desk and I was given a generic response "room service will clean the room. It took room service two days to clean the room. Due to the front desk nonchalant attitude, I began to break out due to the unsanitary conditions. The type of customer service being provided at your establishment is extremely unacceptable and I am demanding to be compensated in the form of a full refund as a result of it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r457734909-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>457734909</t>
+  </si>
+  <si>
+    <t>02/06/2017</t>
+  </si>
+  <si>
+    <t>The staff makes the place Great</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while in Houston to attend the Super Bowl. The staff and front desk was amazing. The hotel was clean and the rooms were done up nicely. I would recommend having a car as this hotel is close to the highway, and they offer free parking. Uber rides work well ($11) to downtown or the Metro which is a block away.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel while in Houston to attend the Super Bowl. The staff and front desk was amazing. The hotel was clean and the rooms were done up nicely. I would recommend having a car as this hotel is close to the highway, and they offer free parking. Uber rides work well ($11) to downtown or the Metro which is a block away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r452637494-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452637494</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>Not Bad.Travelers Deserve2Know??</t>
+  </si>
+  <si>
+    <t>First stay. This Hotel is about 1 &amp; 1/2 yrs old. It has the current Decor of the grays and modern updates. Even their elevator is very Euro Modern. Checking in the young lady at the Desk was friendly, informative and provided all the goodies that come with the Hilton Honors, etc. 
+I "was" booked at the end of the hallway on the top floor. Yes, king size. 
+***THE KEY WORD HERE IS END OF HALLWAY***
+Trust me on this One It NEVER WORKS.
+The END of The Hallway Rooms. Are Most Of the Time THE WORST.
+Why?? Yellow Stained Sheets(Yes, I took Pics) long Hair from Housekeeping(?) 
+Even Pet Hair. 
+Surrre Enough:-!! Had to Change Rooms.
+FYI: I Reduce The Lighting &amp; Turn On The FLASHLIGHT on My Phone And It's 
+YUCK-IDLY Amazing. What You Would Rather Not See. 
+I am Not into Taking Any UNWANTED SOUVENIRS WITH ME. 
+***NO Definitely "Not A Prissy Prude". Don't know who's "Party" It was Don't Want it***
+New Room, Closer to the Elevator. No Problems. Big Difference. 
+The Staff is friendly, very good people skills. Checked in rather late last night. 
+Breakfast they offer is very, very simple. 
+Took a small to go bowl of plain Oatmeal and a smaller portion of fruit. Rosario was attending the Breakfast Area. 
+Lovely lady, friendly eager to assist. Nice to speak to such a pleasant lady very early in the morning. 
+Fresh to go Java....First stay. This Hotel is about 1 &amp; 1/2 yrs old. It has the current Decor of the grays and modern updates. Even their elevator is very Euro Modern. Checking in the young lady at the Desk was friendly, informative and provided all the goodies that come with the Hilton Honors, etc. I "was" booked at the end of the hallway on the top floor. Yes, king size. ***THE KEY WORD HERE IS END OF HALLWAY***Trust me on this One It NEVER WORKS.The END of The Hallway Rooms. Are Most Of the Time THE WORST.Why?? Yellow Stained Sheets(Yes, I took Pics) long Hair from Housekeeping(?) Even Pet Hair. Surrre Enough:-!! Had to Change Rooms.FYI: I Reduce The Lighting &amp; Turn On The FLASHLIGHT on My Phone And It's YUCK-IDLY Amazing. What You Would Rather Not See. I am Not into Taking Any UNWANTED SOUVENIRS WITH ME. ***NO Definitely "Not A Prissy Prude". Don't know who's "Party" It was Don't Want it***New Room, Closer to the Elevator. No Problems. Big Difference. The Staff is friendly, very good people skills. Checked in rather late last night. Breakfast they offer is very, very simple. Took a small to go bowl of plain Oatmeal and a smaller portion of fruit. Rosario was attending the Breakfast Area. Lovely lady, friendly eager to assist. Nice to speak to such a pleasant lady very early in the morning. Fresh to go Java. Not WOW ME:-/ Just ok. More like the Economy Quality. But, not Muddy Melt paint Of A Battle Ship, either. That I would pass. No longer do the Grave Yard shift(While I Practiced Nursing LOL).So far so Good, New Marriott is Currently Being Constructed Now. In the Same drive almost across from this one. (Source disclosed to me. That is Owned by The same people(Franchisee???). All in all will fly back home in 3 more days. I do thank them for their hospitality. The downstairs Staff puts great effort to accommodate your needs. Safe &amp; Happy Journeys:-)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Chris J, General Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded January 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2017</t>
+  </si>
+  <si>
+    <t>First stay. This Hotel is about 1 &amp; 1/2 yrs old. It has the current Decor of the grays and modern updates. Even their elevator is very Euro Modern. Checking in the young lady at the Desk was friendly, informative and provided all the goodies that come with the Hilton Honors, etc. 
+I "was" booked at the end of the hallway on the top floor. Yes, king size. 
+***THE KEY WORD HERE IS END OF HALLWAY***
+Trust me on this One It NEVER WORKS.
+The END of The Hallway Rooms. Are Most Of the Time THE WORST.
+Why?? Yellow Stained Sheets(Yes, I took Pics) long Hair from Housekeeping(?) 
+Even Pet Hair. 
+Surrre Enough:-!! Had to Change Rooms.
+FYI: I Reduce The Lighting &amp; Turn On The FLASHLIGHT on My Phone And It's 
+YUCK-IDLY Amazing. What You Would Rather Not See. 
+I am Not into Taking Any UNWANTED SOUVENIRS WITH ME. 
+***NO Definitely "Not A Prissy Prude". Don't know who's "Party" It was Don't Want it***
+New Room, Closer to the Elevator. No Problems. Big Difference. 
+The Staff is friendly, very good people skills. Checked in rather late last night. 
+Breakfast they offer is very, very simple. 
+Took a small to go bowl of plain Oatmeal and a smaller portion of fruit. Rosario was attending the Breakfast Area. 
+Lovely lady, friendly eager to assist. Nice to speak to such a pleasant lady very early in the morning. 
+Fresh to go Java....First stay. This Hotel is about 1 &amp; 1/2 yrs old. It has the current Decor of the grays and modern updates. Even their elevator is very Euro Modern. Checking in the young lady at the Desk was friendly, informative and provided all the goodies that come with the Hilton Honors, etc. I "was" booked at the end of the hallway on the top floor. Yes, king size. ***THE KEY WORD HERE IS END OF HALLWAY***Trust me on this One It NEVER WORKS.The END of The Hallway Rooms. Are Most Of the Time THE WORST.Why?? Yellow Stained Sheets(Yes, I took Pics) long Hair from Housekeeping(?) Even Pet Hair. Surrre Enough:-!! Had to Change Rooms.FYI: I Reduce The Lighting &amp; Turn On The FLASHLIGHT on My Phone And It's YUCK-IDLY Amazing. What You Would Rather Not See. I am Not into Taking Any UNWANTED SOUVENIRS WITH ME. ***NO Definitely "Not A Prissy Prude". Don't know who's "Party" It was Don't Want it***New Room, Closer to the Elevator. No Problems. Big Difference. The Staff is friendly, very good people skills. Checked in rather late last night. Breakfast they offer is very, very simple. Took a small to go bowl of plain Oatmeal and a smaller portion of fruit. Rosario was attending the Breakfast Area. Lovely lady, friendly eager to assist. Nice to speak to such a pleasant lady very early in the morning. Fresh to go Java. Not WOW ME:-/ Just ok. More like the Economy Quality. But, not Muddy Melt paint Of A Battle Ship, either. That I would pass. No longer do the Grave Yard shift(While I Practiced Nursing LOL).So far so Good, New Marriott is Currently Being Constructed Now. In the Same drive almost across from this one. (Source disclosed to me. That is Owned by The same people(Franchisee???). All in all will fly back home in 3 more days. I do thank them for their hospitality. The downstairs Staff puts great effort to accommodate your needs. Safe &amp; Happy Journeys:-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r449372092-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>449372092</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Luke &amp; Natalia</t>
+  </si>
+  <si>
+    <t>If it wasn't for these 2 (Luke and Natalia) I'd never stay or recommend a stay at this property, if it wasn't for them. They showed exemplary customer service! Every issue I had they resolved with a smile!</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r446973051-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>446973051</t>
+  </si>
+  <si>
+    <t>12/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent and pleasant experience!</t>
+  </si>
+  <si>
+    <t>This Hampton Inn was wonderful!  Professional and pleasant staff, pristine rooms, uber comfortable beds with quality linens, ample parking, great hot breakfast, and thirsty gleaming white towels await you at this Hampton Inn.  Don't be thrown off by the fact the hotel is a somewhat construction area, for you will be delighted when you set foot into the lobby.  The next time I visit my niece, who lives in the neighborhood about 10 minutes from the hotel, I will for sure stay at this Hampton Inn.  You can't and won't go wrong staying at this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r442587757-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442587757</t>
+  </si>
+  <si>
+    <t>12/07/2016</t>
+  </si>
+  <si>
+    <t>Clean and Fresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for business. The room was clean, modern and up to date. I am a Hilton member and regularly stay at Hamptons for business. This is one of the nicer ones if have stayed at and recommend it for a business stay in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r439535302-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439535302</t>
+  </si>
+  <si>
+    <t>11/23/2016</t>
+  </si>
+  <si>
+    <t>Great one night stay!</t>
+  </si>
+  <si>
+    <t>Hotel looks brand new and is beautiful! Felt like I was staying a much higher priced hotel. One of the nicest rooms I've ever had. It is right off I-10 so it's perfect if you're just looking for a stop in the middle of a road trip across Texas.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r439416004-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439416004</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Brand new but has some issues</t>
+  </si>
+  <si>
+    <t>Very nice brand new hotel with drainage problems in parking lot. I dont think everything was complete here before they opened. Beautiful inside, nice lobby. Room was excellent, I believe I was the first to stay here in this room. Breakfast was excellent the next morning, but NO HOT WATER for showers. The front desk staff commented" Oh thats not good"  You think??? New hotel issues that will hopefully be resolved soon.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r433241676-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>433241676</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Extremely pleasant experience!</t>
+  </si>
+  <si>
+    <t>We have absolutely NO complaints. The check-in went smooth.The staff was very nice.Our room was very clean.The breakfast was delicious. We will definitely stay again next time we're in the Houston area.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r431759546-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431759546</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Awesome Place to STay</t>
+  </si>
+  <si>
+    <t>The staff are great and friendly! I always enjoy my stay at The Hampton Inn. We conference we went to now uses The Hampton Inn because we told them how great they are now it's their conference hotel for years to come. The breakfast was tasty as always and all the staff was totally amazing!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r431758990-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431758990</t>
+  </si>
+  <si>
+    <t>A Great Day at the Hampton I-10 East</t>
+  </si>
+  <si>
+    <t>This is the place to reside if you are staying in the eastern side of Houston.  The staff is courteous and efficient.  The food is plentiful and delicious. I would stay here again and would challenge anyone to find a better place with such a willing Staff who function as a Team to make you stay relaxing and "worry-free".</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r422178855-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>422178855</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Stay here</t>
+  </si>
+  <si>
+    <t>Best value. I stay at hamptons all across the country and this location is the absolute cleanest and best value I have experienced to date. It is a continual balancing act between cost and utility. The thing that I like the most about this particular chain is consistency across the brand, with only a few exceptions. No organization is perfect. Last month I had the experience from hell stay at the Boulder Colorado Hampton. I complained to Hilton honors asking that they make good on their 100% satisfaction guarantee. After an hour and a half being browbeat on the phone I was denied a refund per their advertisement. It took several more phone calls and emails to get any satisfaction. Do not make the mistake I made, demand satisfaction upon checkout. Do not be in a hurry and think it can easily be handled when you get back home. Other than this one major problem and a few minor issues, I still recommend Hampton without reservation. Respectfully submitted.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Best value. I stay at hamptons all across the country and this location is the absolute cleanest and best value I have experienced to date. It is a continual balancing act between cost and utility. The thing that I like the most about this particular chain is consistency across the brand, with only a few exceptions. No organization is perfect. Last month I had the experience from hell stay at the Boulder Colorado Hampton. I complained to Hilton honors asking that they make good on their 100% satisfaction guarantee. After an hour and a half being browbeat on the phone I was denied a refund per their advertisement. It took several more phone calls and emails to get any satisfaction. Do not make the mistake I made, demand satisfaction upon checkout. Do not be in a hurry and think it can easily be handled when you get back home. Other than this one major problem and a few minor issues, I still recommend Hampton without reservation. Respectfully submitted.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r418436447-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418436447</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Nice newer Hotel</t>
+  </si>
+  <si>
+    <t>This was a great hotel in an odd location.  Its right off the freeway, but was far enough away that you didn't hear the freeway at all.  They have a nice little pool outside, a very large gym, with everything that you would need.  Just like all the other Hampton's breakfast was nice, but could have put a little Houston twist to the meal(or maybe I missed it).  Most of the Hampton's I've gone to have put a local twist to one of the hot dishes.The staff was all very friendly and the rooms are great and decorated nicely.  The hotel is in a very industrial area and even know there's restaurants around, its just a little bit weird. Please note there's a brand new hotel being built 30-50 feet away, but shouldn't have any issues with staying at this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a great hotel in an odd location.  Its right off the freeway, but was far enough away that you didn't hear the freeway at all.  They have a nice little pool outside, a very large gym, with everything that you would need.  Just like all the other Hampton's breakfast was nice, but could have put a little Houston twist to the meal(or maybe I missed it).  Most of the Hampton's I've gone to have put a local twist to one of the hot dishes.The staff was all very friendly and the rooms are great and decorated nicely.  The hotel is in a very industrial area and even know there's restaurants around, its just a little bit weird. Please note there's a brand new hotel being built 30-50 feet away, but shouldn't have any issues with staying at this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r415331471-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>415331471</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>It served its purpose</t>
+  </si>
+  <si>
+    <t>I only stayed one night. Overall everything was fine. I did have a smell in my room like water in the carpet. I probably should have asked for another room but I only smelled it over by the a/c.  I told them about it when I checked out. They were sorry and wanted to know what they could do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r403337997-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403337997</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Fresh decor and great staff</t>
+  </si>
+  <si>
+    <t>First, the location is ok.  It is in a so so part of town but we never felt unsafe. Going downtown, Kemah, zoo was not too bad from that part of I10. Like some mentioned the hotel is really good on cleanliness which is important to us. The rooms, hallway, and eating area were decorated nicely. The staff was always helpful and they were super friendly.  Breakfast was a good variety but was a typical hot/cold breakfast.  Pool was on the small side but overall we enjoyed our stay!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r401789024-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>401789024</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>My review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was ideally located for me.  It was new and nice and clean!  I loved the fitness center.  Free weights with a stationary bike was perfect.  It was reasonably priced.  I appreciate the ease with which j was able to register.  </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r397330318-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397330318</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Great place to stop &amp; sleep on a long drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was traveling to see family and stopped at this location to sleep for the night. My teenage kids were with me. The room size was good to accommodate us all. The room was clean, quiet, and comfortable. Breakfast was fresh and made our next travel day easier. We will definitely stop here again in the future. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r395687345-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395687345</t>
+  </si>
+  <si>
+    <t>07/22/2016</t>
+  </si>
+  <si>
+    <t>unsatisfactory</t>
+  </si>
+  <si>
+    <t>My stay at the Hampton Inn Houston East I-10 was very ordinary, not representing the excellent service normally associated with Hilton Brand hotels. It is inconceivable to me that the management knew about the wake-up call system being out of order, but did nothing to notify the guests relying on the system.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r395312633-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395312633</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Awesome</t>
+  </si>
+  <si>
+    <t>This Hampton Inn is a Jewell, super staff, clean rooms. It is a pleasure each and every time we check in. We have to go to MD Anderson every 2 weeks, and we are always greet with a big smile. Always know we are going to check in to a clean room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r393999771-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393999771</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Customer Service!</t>
+  </si>
+  <si>
+    <t>From the time we arrived to the time we left we were given the best customer service.  We were there for a Perfect Game Baseball tournament, playing at different venues around Houston. When we arrived we were given a case of water and a case of gatorade by the Hotel for our baseball team.  They did not have to do that. The rooms are nice and comfy.  They provided a nice assortment of comp breakfast choices daily. Certainly more than most other chains offer. Eggs, potatoes, waffles, fruit, cereals, etc...  Real nice lobby and plenty of places to sit while eating. The hotel is located in an area that you would not want to stroll around on foot.  But if you stay there the hotel is great with easy access to 35 other other highways needed to get around houston. Shout out to Jolie Valencia, Chris Jackson, Daphne Guidry and Trishia for making our stay a great one!MoreShow less</t>
+  </si>
+  <si>
+    <t>From the time we arrived to the time we left we were given the best customer service.  We were there for a Perfect Game Baseball tournament, playing at different venues around Houston. When we arrived we were given a case of water and a case of gatorade by the Hotel for our baseball team.  They did not have to do that. The rooms are nice and comfy.  They provided a nice assortment of comp breakfast choices daily. Certainly more than most other chains offer. Eggs, potatoes, waffles, fruit, cereals, etc...  Real nice lobby and plenty of places to sit while eating. The hotel is located in an area that you would not want to stroll around on foot.  But if you stay there the hotel is great with easy access to 35 other other highways needed to get around houston. Shout out to Jolie Valencia, Chris Jackson, Daphne Guidry and Trishia for making our stay a great one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r391611276-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391611276</t>
+  </si>
+  <si>
+    <t>07/11/2016</t>
+  </si>
+  <si>
+    <t>New Hampton Inn off I-10 Excellent</t>
+  </si>
+  <si>
+    <t>This location is new and right off the highway. Great location for a short holiday stay with family or business travel if you're in the Houston area, great family reunion location. Complimentary breakfast, average. This location is new and right off the highway. Great location for a short holiday stay with family or business travel if you're in the Houston area, great family reunion location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r390246110-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390246110</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Great night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The bed was so good to sleep in. Clean room. Breakfast was very well organized. Trish at check in was so nice and polite. I was in for a funeral and my checking proses told me it was going to be a good stay and it was. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r388334662-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388334662</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Hard to beat</t>
+  </si>
+  <si>
+    <t>I can't imagine a better place to stay while on a business trip.  The room seemed luxurious.  The bed wasn't too soft.  The TV worked.  Then fan did not come on automatically which is annoying to me.  If you can't be at home, this is a great alternative.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r385159260-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385159260</t>
+  </si>
+  <si>
+    <t>06/22/2016</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay</t>
+  </si>
+  <si>
+    <t>This hotel has always been a great place to stay. The staff is awesome, and the hotel is always clean. Close to Downtown Houston with easy access to the express way, will definitely stay at this location when traveling to Houston. Thanks for your great service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r383333457-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383333457</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Definitely Recommend</t>
+  </si>
+  <si>
+    <t>I enjoyed everything about this hotel.  The staff was wonderful, the room was very comfortable.  The cohesiveness of the design and decor of the hotel throught was very nice.  I would definitely stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r383028254-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383028254</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Anniversary stay</t>
+  </si>
+  <si>
+    <t>When we arrived at the hotel we were greeted by the staff. Check in process was very easy. Room was clean, nice and up to my expectations. The complimentary breakfast was exceptional. This is a newer hotel so everything was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r370070193-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>370070193</t>
+  </si>
+  <si>
+    <t>05/04/2016</t>
+  </si>
+  <si>
+    <t>New facility.  Excellent in every way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was very clean brand-new facility    Staff was very helpful extremely nice    Complementary breakfast was great     Address of the hotel was not correctly identified on the Google maps    Staff was very helpful  giving directions   And had been trying to correct the problem  </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r369227844-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>369227844</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>The best stay I've had in a long time!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>The staff was great, anything I needed they made sure to help me with.. The decor was beautiful... The breakfast was great and plentiful.... The gym and pool was assembly to everyone... They had a 24 hour store in case I needed anything!!!! Thanks so much to everyone at this location you all made my stay wonderful!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r365841057-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365841057</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Brand new hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is brand new, for me, it's conveniently located close to my client's plant; right on the East Freeway and close to many restaurants. Rooms are spacious with a big screen TV, mini fridge, and microwave. The gym is well equipped and they have a small pool. In the mornings they serve breakfast which may not be the greatest, but it is very good. Fun fact: Safety is never a concern here, since the local cops use the breakfast area to gather every night and fill their daily reports. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r365301022-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>365301022</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>New Hotel</t>
+  </si>
+  <si>
+    <t>Hamptons are always very nice.  I have stayed in at least 50 over the years and always been satisfied.  The beds are very comfortable.  The breakfast had a lot of choices and the breakfast area was very pretty.  Hampton is a very consistent product so you know what you are going to get when you enter.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r364262291-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364262291</t>
+  </si>
+  <si>
+    <t>04/14/2016</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>New property - only 9 months old. We flew into Hobby airport so this was close. It was about 15 minutes from downtown.TV had excellent color. Air conditioning worked great. Sufficient light in bed and bath areas Bed was comfortable. Neurtragena amenities were nice. Staff was friendly and helpful (thanks Amanda). I guess I am not a waffle guy so breakfast was ok. A couple of good restaurants nearby for dinner. We thought it was a good value for what it offered.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r364059266-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364059266</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>I was extremely impressed as to how up to date the hotel is very 2016 and the staff was very helpful and friendly.  The cleaning staff was also wonderful, we left our room in a huge mess (pressed for time) and housekeeping managed to clean and make the beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris J, General Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>I was extremely impressed as to how up to date the hotel is very 2016 and the staff was very helpful and friendly.  The cleaning staff was also wonderful, we left our room in a huge mess (pressed for time) and housekeeping managed to clean and make the beds.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r363330675-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363330675</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Hampton review</t>
+  </si>
+  <si>
+    <t>My family was in for Final Four. Hotel is new. Room and lobby were very clean. Breakfast had many options and flavorful and attendant kept area very clean. We took advantage of the hot tub after games and concert on Friday and Saturday. Stayed out past pool closing time of 10:00 till 11:00 those nights and nobody from hotel pushed us to leave which I appreciated since we weren't being rowdy. Easy access from I-10. Found a good Mexican restaurant Pappasitos Cantina nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r362693079-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362693079</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Hotel may be nice but area is not</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel due to the surrounding area. We did not feel safe. We stayed during Final Four and the prices were outrageous for the area. We could have stayed downtown for $300 a night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris J, Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel due to the surrounding area. We did not feel safe. We stayed during Final Four and the prices were outrageous for the area. We could have stayed downtown for $300 a night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r362692664-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362692664</t>
+  </si>
+  <si>
+    <t>NCAA Championship 2016</t>
+  </si>
+  <si>
+    <t>Chose this hotel (on Hhonors points) at last minute to attend the 2016 NCAA final game - arrived late after a 14 hour drive. Very restful sleep in comfortable king size bed. Had a great workout in the gym, and breakfast before going to the game activities. Returned late, and had 4 restful hours sleep before driving back another 14 hours. Comfortable, and nice tiles bath with LARGE shower. GO VILLANOVA !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r359835862-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359835862</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>Good, Central Location</t>
+  </si>
+  <si>
+    <t>Ok, well, I'm a bit iffy on the neighborhood - there were a lot of bail bondsmen and nail places.  But, I had a supplier in Galena Park and another supplier downtown and this hotel was centrally located.  It took about 20 minutes to get to downtown, and about that to get to Galena Park.I use Waze to navigate these days, and it was convinced that the hotel was on the other side of the street, but it was just a U-turn under the highway to fix.I like Hampton Inns.  I like the neutrogena toiletries, I love the bed, most of them have the nifty lamps with the plugs so I don't have to move furniture to plug in my chargers.This particular Hampton had a little fridge and a microwave in the room, which is always good.  I liked the colors, too - blues and greys.  The room had a walk-in shower with sliding glass doors, which tried to kill me a couple of times but that may have been me.Should I find myself in this area again, I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Ok, well, I'm a bit iffy on the neighborhood - there were a lot of bail bondsmen and nail places.  But, I had a supplier in Galena Park and another supplier downtown and this hotel was centrally located.  It took about 20 minutes to get to downtown, and about that to get to Galena Park.I use Waze to navigate these days, and it was convinced that the hotel was on the other side of the street, but it was just a U-turn under the highway to fix.I like Hampton Inns.  I like the neutrogena toiletries, I love the bed, most of them have the nifty lamps with the plugs so I don't have to move furniture to plug in my chargers.This particular Hampton had a little fridge and a microwave in the room, which is always good.  I liked the colors, too - blues and greys.  The room had a walk-in shower with sliding glass doors, which tried to kill me a couple of times but that may have been me.Should I find myself in this area again, I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r359597484-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359597484</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Great stay for business travel</t>
+  </si>
+  <si>
+    <t>A great location for business travel, just east of the hustle and bustle of Houston and ease of access east of town in the morning without the headaches. This hotel has great accommodations and a wonderful staff. The complimentary breakfast had just about everything you could ask for! The rooms are very clean and well laid out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r355469212-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355469212</t>
+  </si>
+  <si>
+    <t>03/14/2016</t>
+  </si>
+  <si>
+    <t>Always a nice place</t>
+  </si>
+  <si>
+    <t>I have been staying at Hampton Inns for several years now. I do not recall a bad experience. Comfortable, roomy, and very clean. Breakfast is good, fitness centers are well maintained. This Hotel very nice and the staff is great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r351946699-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>351946699</t>
+  </si>
+  <si>
+    <t>02/29/2016</t>
+  </si>
+  <si>
+    <t>Reaosnable location, standard amenities</t>
+  </si>
+  <si>
+    <t>Due to the standard high quality levels and amenities found at Hampton hotels I tend to book them over and over again. This location meets those expectations and gets the same high marks. The location is reasonably close to Houston and outlaying industrial areas. The staff were friendly and efficient.Not within walking distance of much. There is a McDonald's and a decent Mexican place nearby. Otherwise I feel you'd need a car.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r350724425-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350724425</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Hampton - Very Clean</t>
+  </si>
+  <si>
+    <t>I stayed there with my 7 year old son.  I felt safe (which is very important). The hotel was very clean and the staff was very friendly. The beds were comfortable. The only complaint that I have is that it was too noisy and the room doors slam.  So you could hear every door on the floor when it closed among all of the other noise.  However, everything else was great and I would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r350435129-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350435129</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Fun Stay</t>
+  </si>
+  <si>
+    <t>Just wanted to get away from the inner city of Houston, the area of location isn't prime, its quite grungy looking, but the hotel itself is beautiful, spacious, friendly, and CLEAN! We enjoyed out weekend away, the breakfast was sensational!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r345937033-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345937033</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Helpful staff!</t>
+  </si>
+  <si>
+    <t>The staff were very accommodating and helpful -we were quickly checked in and local dining suggestions despite arriving at a late hour. They had helped the taxi driver find it on the phoneas it is tough to find on GPS alone.  The next morning the new crew was also helpful in arranging a ride to the cruise port - Thank you Tricia!The breakfast buffet had plenty of choices.The hotel is in excellent condition.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r340300391-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>340300391</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Most exceptable!</t>
+  </si>
+  <si>
+    <t>As others have said a GPS has a hard time with the address......but calling the hotel we were given directions which got us there!  This is a newer facility...which is always good!  The staff was friendly and accommodating! When we were missing a bedside lamp, they were able to locate one. Normal breakfast......I wish Hampton would make some changes in their selections.  But all in all a good choice!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r336565733-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>336565733</t>
+  </si>
+  <si>
+    <t>12/31/2015</t>
+  </si>
+  <si>
+    <t>Excellent! All staff members was friendly and very professional. The complementary breakfast was great as well. I would definitely refer family and friends to use Hampton by Hilton as there first vacation choice.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r334424247-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>334424247</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Brand new Hotel and efficient!</t>
+  </si>
+  <si>
+    <t>This hotel was brand new and contemporary. And in line with the brand: efficient for business travelling, no fuzz.  Breakfast was just OK but could be a little upgraded.  Was staying only for one night, so short but perfect for what I had to do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r333178403-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>333178403</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Address is confusing</t>
+  </si>
+  <si>
+    <t>New hotel, clean and nice.  Good breakfast!  Quite!  The only problem is that the gps had a hard time with the address.   The first try took us to a Hampton Inn 20 minutes away.  Then, when we finally got near the hotel it took us through a neighborhood behind the hotel.  We had to go around the block until we saw the area to turn into while the gps kept telling us to turn in the wrong place.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r332791389-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>332791389</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit the jackpot </t>
+  </si>
+  <si>
+    <t>This place has only been open for 5 months, so everything is new. Extremely clean and quiet. Bedding was very comfortable. TV was big. Bathroom very well lit. Huge walk-in shower. Night light in bathroom. Elliptical and treadmill in fitness center were awesome!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r330792603-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330792603</t>
+  </si>
+  <si>
+    <t>12/04/2015</t>
+  </si>
+  <si>
+    <t>Good business trip</t>
+  </si>
+  <si>
+    <t>I had a one night stay here for a business trip to Houston.  I was very pleased with the comfort and location of the hotel.  There are restaurants nearby and the complimentary breakfast was very good.  The room was comfortable and quiet and wifi was complimentary.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r330626998-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330626998</t>
+  </si>
+  <si>
+    <t>12/03/2015</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>Entire facility was very clean and comfortable.  Pleasant helpful staff.  Although it has highway frontage it's still a little bit difficult to get to but in Houston what isn't?  I stupidly left my laptop in the room and didn't realize it until I got home but the staff packaged it securely and overnighted it to me.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r330488694-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>330488694</t>
+  </si>
+  <si>
+    <t>Very nice new hotel</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised when I  arrived at this hotel and realized that it was fairly new. In fact on the second floor it still had a faint smell of new carpet. Just as you would expect with a new building there are plenty of modern amenities. I am always pleased when I find simple things like a USB charger by the bed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r328314496-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>328314496</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Stylish and very nice hotel!</t>
+  </si>
+  <si>
+    <t>I loved the interior design of the hotel! I always choose a place that looks nice, is clean and doesn't cost that much. This place is really new, and everyting is beatiful and clean. Breakfast was good too. I think anyone travelling from Europe would like this one. The location isn't great, but we only needed to place to stay and moved around with a rented car. The staff wasn't as nice as in some other hotels we stayed on this trip, but as a Finn I don't need all that pampering anyways. Sometimes too much is just too much for a Finn, but i do know that Americans are used to a bit more effort.MoreShow less</t>
+  </si>
+  <si>
+    <t>Chris J, General Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded November 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2015</t>
+  </si>
+  <si>
+    <t>I loved the interior design of the hotel! I always choose a place that looks nice, is clean and doesn't cost that much. This place is really new, and everyting is beatiful and clean. Breakfast was good too. I think anyone travelling from Europe would like this one. The location isn't great, but we only needed to place to stay and moved around with a rented car. The staff wasn't as nice as in some other hotels we stayed on this trip, but as a Finn I don't need all that pampering anyways. Sometimes too much is just too much for a Finn, but i do know that Americans are used to a bit more effort.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r327539787-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327539787</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Unable to Sleep</t>
+  </si>
+  <si>
+    <t>With all the luxurious furniture and new construction, they forgot to insulate the walls that house the plumbing.  Guest are unable to get a period of rest due to the loud noise from flushing toilets and running showers.  You can actually hear through the walls and ceiling the guest above using the toilet.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r327539779-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327539779</t>
+  </si>
+  <si>
+    <t>noisy and no follow up</t>
+  </si>
+  <si>
+    <t>I would find another hotel away from the road. Also, They told me about the satisfaction guaranteed, but I had to follow up. I still have received no satisfaction. This is from a customer that stays at Hilton Brand often.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r322545705-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>322545705</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>Safe &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>We stayed 6 weeks. This hotel was our home-away-from-home!  Great staff!  The room was always cleaned well. We felt like our stuff was safe when we were away. And our car too, in the parking lot at night.  The breakfasts are excellent, with a full range of great food choices--and I'm on a restricted diet :)</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r321062343-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321062343</t>
+  </si>
+  <si>
+    <t>10/22/2015</t>
+  </si>
+  <si>
+    <t>Road Trip Hidden Gem</t>
+  </si>
+  <si>
+    <t>We were extremely pleased when we arrived at this hotel!  The place is beautiful with all of the bright colored furniture and décor.  The hotel was emmaculate and clean.  The breakfast was hot, fresh and delicious.  I recommend this hotel to both traveling families and business people.  A true "gem".  CZ</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r320794079-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320794079</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Great Staff! Excellent Facilities!</t>
+  </si>
+  <si>
+    <t>The staff is super friendly, and its a brand new building so your room is great too, not to mention the free actual breakfast in the morning, we were actually walk ins, and were helped from minute 1, definitely my new stay in HOU!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r318189608-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318189608</t>
+  </si>
+  <si>
+    <t>10/12/2015</t>
+  </si>
+  <si>
+    <t>Business Trip to Houston - First time at this Hampton INN</t>
+  </si>
+  <si>
+    <t>WOW&gt;  This is a NEW Hampton INN and it shows.  The hotel and the rooms are beautiful and technologically superior to most recent hotels I have stayed in.  Very nicely appointed and a very friendly staff.  Great experience.  We will be utilizing this hotel exclusively for ALL business trips to the Houston area moving forward.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r315758220-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315758220</t>
+  </si>
+  <si>
+    <t>10/03/2015</t>
+  </si>
+  <si>
+    <t>Weekend trip</t>
+  </si>
+  <si>
+    <t>Brand new Hampton Inn with all the bells and whistles. Ray at the front desk in the evenings was super helpful with everything--I checked in late and we had a wonderful conversation; he also worked it out so that I had late check-out. Daphne, the day manager was super helpful when I had problems printing my boarding pass. The attendant at breakfast was so welcoming and nice. Nice, clean, well maintained facilities. The nicest Hampton Inn I've ever stayed at--granted, it might have to do with how new it is, but shout out to them for building such a nice facility. The only hiccup I had was that I had come back late (almost 4 am) from downtown for a friend's wedding and requested late check out. This was taken care of by Ray, but for whatever reason, the housekeeping supervisor woke me up the next day around noon surprised that I hadn't checked out yet. When I talked with Daphne at check-out, she apologized and informed me that it was mistake. It was an honest mistake, but that the one and only hiccup I encountered during my entire stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Brand new Hampton Inn with all the bells and whistles. Ray at the front desk in the evenings was super helpful with everything--I checked in late and we had a wonderful conversation; he also worked it out so that I had late check-out. Daphne, the day manager was super helpful when I had problems printing my boarding pass. The attendant at breakfast was so welcoming and nice. Nice, clean, well maintained facilities. The nicest Hampton Inn I've ever stayed at--granted, it might have to do with how new it is, but shout out to them for building such a nice facility. The only hiccup I had was that I had come back late (almost 4 am) from downtown for a friend's wedding and requested late check out. This was taken care of by Ray, but for whatever reason, the housekeeping supervisor woke me up the next day around noon surprised that I hadn't checked out yet. When I talked with Daphne at check-out, she apologized and informed me that it was mistake. It was an honest mistake, but that the one and only hiccup I encountered during my entire stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r313416367-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313416367</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable, clean and convenient.</t>
+  </si>
+  <si>
+    <t>My husband and I were in Houston for business and loved this Hampton.  We travel extensively for business and this has to be one of the best Hampton properties we have stayed in.  The property was extremely well kept, clean, modern and very accommodating.  The staff was amazing.  It is obvious they are well trained and so attentive, professional and  did an outstanding job.  Great job Hampton properties!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r309709307-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309709307</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>No hot water in shower</t>
+  </si>
+  <si>
+    <t>Nice new hotel, however no hot water in shower, two other guests in elevator had same experience. Will not stay here again/ aslfjadsljf lakdfskjalksjfd ;lakskjdfklasdf ;laksjdflsdjf riptoir pou40tajdfgj al;sdgjadgj ;laldsjlsdjglsd</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r309178247-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309178247</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Brand new Hotel well staffed</t>
+  </si>
+  <si>
+    <t>Very nice hotel on East side of Houston. Located close to both Hobby and Bush airports. Well staffed, clean rooms. Local neighborhood not the best in Houston area but would definitely stay here again if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r309141229-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>309141229</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Family Gathering</t>
+  </si>
+  <si>
+    <t>The staff was very pleasant and friendly at this hotel.  The beds and pillows, I wish I could take them home!  As a family we occupied 12 rooms and the pool was a great place for us all to gather and relax.  I have family in the Houston area and will most assuredly stay at this hotel again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r306181066-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306181066</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Hotel is new so everything is very nice. Room did "feel" a little cold and industrial but nicely appointed. Breakfast was typical Hampton Inn so good value. There are numerous places to eat in the area of the hotel.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r303127124-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303127124</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about this hotel. The rooms are brand new, and the towels were exceptionally soft! I choose this hotel originally because of their fitness center and I'm so glad I did. The complimentary breakfast was fresh and had healthy options. The location was across the highway from several good restaurants!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r300525640-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300525640</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>They should give lessons.</t>
+  </si>
+  <si>
+    <t>The cleanest hotel I have ever stayed in. We came down late for breakfast, and it looked like we were the first to arrive. The hotel smelled clean and fresh; every nook and cranny was clean. Great, friendly staff. Ray checked us in around 2 a.m., and he was refreshingly helpful and friendly. We were travelling to a much more expensive destination hotel, and yet the Hampton Inn was far cleaner and had a better staff. My compliments.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r295888605-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295888605</t>
+  </si>
+  <si>
+    <t>08/04/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>The hotel is new and has many great updates.  The staff was super friendly and can't beat the close location to the interstate.  There were many dining options close by but wasn't able to take advantage this time.  Breakfast was very good too.  Really happy with my stay and would definitely stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r295237777-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295237777</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampton Inn </t>
+  </si>
+  <si>
+    <t>Nice new Hampton. Problem is your Google maps can't find the service road leading to it. So unless you are familiar with the location or see the sign you'll end up in someone's neighborhood. Early am breakfast which starts earlier then the surrounding hotels which is perfect for people who get to their jobs before 7am. Nice large gym area, nicer then most hotels in the area. Offer actually free weights for those who like free weights. Rooms are pretty cool with new modern styling and a large lounging chair for sitting which is something I've not seen in a hotel before other than privately owned establishments.Aside from some issues during construction from one individual the hotel is finished and is open. As for management not being able to provide the receipt. That is a problem due to training concerns on the hotel chains part. Each hotel is independently purchased through Hilton as a franchise. I travel for a living and I've had similar issues with not receiving an invoice or missing receipt or even getting the wrong persons receipt. It's not a big deal most of the time, someone can usually fix the problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice new Hampton. Problem is your Google maps can't find the service road leading to it. So unless you are familiar with the location or see the sign you'll end up in someone's neighborhood. Early am breakfast which starts earlier then the surrounding hotels which is perfect for people who get to their jobs before 7am. Nice large gym area, nicer then most hotels in the area. Offer actually free weights for those who like free weights. Rooms are pretty cool with new modern styling and a large lounging chair for sitting which is something I've not seen in a hotel before other than privately owned establishments.Aside from some issues during construction from one individual the hotel is finished and is open. As for management not being able to provide the receipt. That is a problem due to training concerns on the hotel chains part. Each hotel is independently purchased through Hilton as a franchise. I travel for a living and I've had similar issues with not receiving an invoice or missing receipt or even getting the wrong persons receipt. It's not a big deal most of the time, someone can usually fix the problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r295048851-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295048851</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>New Hotel in Houston</t>
+  </si>
+  <si>
+    <t>I traveled to Houston to catch the Los Angeles Angels play the Houston Astros.  I noticed that this was a new hotel in the area, so I wanted to give it a try.  The hotel is a nicer Hampton Inn from what I have experienced in the past, but then again, it is brand new.  The check-in process was fairly easy, the room was very nice, and the bed was awesome!  Very comfortable sleep!!  The breakfast was pretty good as well.  The hotel is still is open for business, but it looks like they are still performing some maintenance.  The GPS will take you to a spot right behind the hotel, so you may have to drive around the corner to get to the hotel entrance.  Overall a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Chris J, General Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I traveled to Houston to catch the Los Angeles Angels play the Houston Astros.  I noticed that this was a new hotel in the area, so I wanted to give it a try.  The hotel is a nicer Hampton Inn from what I have experienced in the past, but then again, it is brand new.  The check-in process was fairly easy, the room was very nice, and the bed was awesome!  Very comfortable sleep!!  The breakfast was pretty good as well.  The hotel is still is open for business, but it looks like they are still performing some maintenance.  The GPS will take you to a spot right behind the hotel, so you may have to drive around the corner to get to the hotel entrance.  Overall a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r291944917-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>291944917</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>No Costumer Services</t>
+  </si>
+  <si>
+    <t>I was there for a couple of days in a business trip. The facility is very nice but they have a construction at the entrance of the parking lot. At the end of my trip I loss the invoice. I been calling the hotel for 3 days and nobody answer the phone. Costumer service ended connected me to an other hotel in Houston and after 1.5 h in the phone back and forward nobody was able to provide a copy of my receipt. I am very disappointed with HH. NEVER HAVE A SIMILAR EXPERIENCE IN ANY HOTEL AND I AM TRAVELING A LOTMoreShow less</t>
+  </si>
+  <si>
+    <t>Chris J, Front Office Manager at Hampton Inn Houston I-10 East, responded to this reviewResponded August 10, 2015</t>
+  </si>
+  <si>
+    <t>I was there for a couple of days in a business trip. The facility is very nice but they have a construction at the entrance of the parking lot. At the end of my trip I loss the invoice. I been calling the hotel for 3 days and nobody answer the phone. Costumer service ended connected me to an other hotel in Houston and after 1.5 h in the phone back and forward nobody was able to provide a copy of my receipt. I am very disappointed with HH. NEVER HAVE A SIMILAR EXPERIENCE IN ANY HOTEL AND I AM TRAVELING A LOTMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r288399225-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>288399225</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Perfect location and a nice place to stay.</t>
+  </si>
+  <si>
+    <t>I travel to Houston (Hobby) very often on business and finding a reasonable nice place to stay has be difficult at times.  This hotel is in a great location and there are many places to eat in the area. This will be my first choice from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I travel to Houston (Hobby) very often on business and finding a reasonable nice place to stay has be difficult at times.  This hotel is in a great location and there are many places to eat in the area. This will be my first choice from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d7791774-r286266858-Hampton_Inn_Houston_I_10_East-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286266858</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Great Staff Friendly Service</t>
+  </si>
+  <si>
+    <t>This new Hampton Inn on I 10 was a very convenient location near my final destination.  I was greeted by a friendly staff and then enjoyed a nice comfy, clean room.  In the morning there was good robust coffee and even the breakfast eggs were prepared well.  Thanks to the staff of Hampton Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>This new Hampton Inn on I 10 was a very convenient location near my final destination.  I was greeted by a friendly staff and then enjoyed a nice comfy, clean room.  In the morning there was good robust coffee and even the breakfast eggs were prepared well.  Thanks to the staff of Hampton Inn.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2450,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2482,7332 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>108</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13" t="s">
+        <v>113</v>
+      </c>
+      <c r="K13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L13" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>104</v>
+      </c>
+      <c r="O13" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" t="s">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+      <c r="L14" t="s">
+        <v>120</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>121</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" t="s">
+        <v>125</v>
+      </c>
+      <c r="K15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L15" t="s">
+        <v>127</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" t="s">
+        <v>130</v>
+      </c>
+      <c r="K16" t="s">
+        <v>131</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O16" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" t="s">
+        <v>137</v>
+      </c>
+      <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s">
+        <v>142</v>
+      </c>
+      <c r="L18" t="s">
+        <v>143</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>133</v>
+      </c>
+      <c r="O18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" t="s">
+        <v>148</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>133</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>150</v>
+      </c>
+      <c r="J20" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+      <c r="L20" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s">
+        <v>159</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>154</v>
+      </c>
+      <c r="O21" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>160</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>163</v>
+      </c>
+      <c r="L22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" t="s">
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+      <c r="O23" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" t="s">
+        <v>174</v>
+      </c>
+      <c r="L24" t="s">
+        <v>175</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>176</v>
+      </c>
+      <c r="O24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" t="s">
+        <v>180</v>
+      </c>
+      <c r="L25" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>183</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" t="s">
+        <v>185</v>
+      </c>
+      <c r="L26" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>193</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>194</v>
+      </c>
+      <c r="J28" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" t="s">
+        <v>197</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>187</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" t="s">
+        <v>201</v>
+      </c>
+      <c r="K29" t="s">
+        <v>202</v>
+      </c>
+      <c r="L29" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>187</v>
+      </c>
+      <c r="O29" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s">
+        <v>207</v>
+      </c>
+      <c r="L30" t="s">
+        <v>208</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>209</v>
+      </c>
+      <c r="O30" t="s">
+        <v>89</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>211</v>
+      </c>
+      <c r="J31" t="s">
+        <v>212</v>
+      </c>
+      <c r="K31" t="s">
+        <v>213</v>
+      </c>
+      <c r="L31" t="s">
+        <v>214</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>209</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" t="s">
+        <v>219</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>220</v>
+      </c>
+      <c r="O32" t="s">
+        <v>60</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J34" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>231</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" t="s">
+        <v>234</v>
+      </c>
+      <c r="L35" t="s">
+        <v>235</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>236</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>238</v>
+      </c>
+      <c r="J36" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" t="s">
+        <v>241</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>243</v>
+      </c>
+      <c r="J37" t="s">
+        <v>244</v>
+      </c>
+      <c r="K37" t="s">
+        <v>245</v>
+      </c>
+      <c r="L37" t="s">
+        <v>246</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>77</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>248</v>
+      </c>
+      <c r="J38" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" t="s">
+        <v>250</v>
+      </c>
+      <c r="L38" t="s">
+        <v>251</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>252</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>253</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>254</v>
+      </c>
+      <c r="J39" t="s">
+        <v>255</v>
+      </c>
+      <c r="K39" t="s">
+        <v>256</v>
+      </c>
+      <c r="L39" t="s">
+        <v>257</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>252</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>258</v>
+      </c>
+      <c r="X39" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>261</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>262</v>
+      </c>
+      <c r="J40" t="s">
+        <v>263</v>
+      </c>
+      <c r="K40" t="s">
+        <v>264</v>
+      </c>
+      <c r="L40" t="s">
+        <v>265</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>252</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>266</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K41" t="s">
+        <v>269</v>
+      </c>
+      <c r="L41" t="s">
+        <v>270</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>271</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" t="s">
+        <v>274</v>
+      </c>
+      <c r="K42" t="s">
+        <v>275</v>
+      </c>
+      <c r="L42" t="s">
+        <v>276</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2</v>
+      </c>
+      <c r="N42" t="s">
+        <v>271</v>
+      </c>
+      <c r="O42" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>277</v>
+      </c>
+      <c r="X42" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>281</v>
+      </c>
+      <c r="J43" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" t="s">
+        <v>283</v>
+      </c>
+      <c r="L43" t="s">
+        <v>284</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>271</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>277</v>
+      </c>
+      <c r="X43" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>286</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>287</v>
+      </c>
+      <c r="J44" t="s">
+        <v>288</v>
+      </c>
+      <c r="K44" t="s">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s">
+        <v>290</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>291</v>
+      </c>
+      <c r="O44" t="s">
+        <v>89</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>292</v>
+      </c>
+      <c r="X44" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>295</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>296</v>
+      </c>
+      <c r="J45" t="s">
+        <v>297</v>
+      </c>
+      <c r="K45" t="s">
+        <v>298</v>
+      </c>
+      <c r="L45" t="s">
+        <v>299</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>300</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>302</v>
+      </c>
+      <c r="J46" t="s">
+        <v>303</v>
+      </c>
+      <c r="K46" t="s">
+        <v>304</v>
+      </c>
+      <c r="L46" t="s">
+        <v>305</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>300</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>306</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>307</v>
+      </c>
+      <c r="J47" t="s">
+        <v>308</v>
+      </c>
+      <c r="K47" t="s">
+        <v>309</v>
+      </c>
+      <c r="L47" t="s">
+        <v>310</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>300</v>
+      </c>
+      <c r="O47" t="s">
+        <v>89</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>311</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s">
+        <v>313</v>
+      </c>
+      <c r="K48" t="s">
+        <v>314</v>
+      </c>
+      <c r="L48" t="s">
+        <v>315</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>316</v>
+      </c>
+      <c r="O48" t="s">
+        <v>317</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>318</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>319</v>
+      </c>
+      <c r="J49" t="s">
+        <v>320</v>
+      </c>
+      <c r="K49" t="s">
+        <v>321</v>
+      </c>
+      <c r="L49" t="s">
+        <v>322</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>316</v>
+      </c>
+      <c r="O49" t="s">
+        <v>89</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>323</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s">
+        <v>326</v>
+      </c>
+      <c r="L50" t="s">
+        <v>327</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>328</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>329</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>330</v>
+      </c>
+      <c r="J51" t="s">
+        <v>331</v>
+      </c>
+      <c r="K51" t="s">
+        <v>332</v>
+      </c>
+      <c r="L51" t="s">
+        <v>333</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>328</v>
+      </c>
+      <c r="O51" t="s">
+        <v>89</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>334</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>335</v>
+      </c>
+      <c r="J52" t="s">
+        <v>331</v>
+      </c>
+      <c r="K52" t="s">
+        <v>336</v>
+      </c>
+      <c r="L52" t="s">
+        <v>337</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>328</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>338</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>339</v>
+      </c>
+      <c r="J53" t="s">
+        <v>340</v>
+      </c>
+      <c r="K53" t="s">
+        <v>341</v>
+      </c>
+      <c r="L53" t="s">
+        <v>342</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>343</v>
+      </c>
+      <c r="O53" t="s">
+        <v>89</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>345</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>346</v>
+      </c>
+      <c r="J54" t="s">
+        <v>347</v>
+      </c>
+      <c r="K54" t="s">
+        <v>348</v>
+      </c>
+      <c r="L54" t="s">
+        <v>349</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>343</v>
+      </c>
+      <c r="O54" t="s">
+        <v>89</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>351</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>352</v>
+      </c>
+      <c r="J55" t="s">
+        <v>353</v>
+      </c>
+      <c r="K55" t="s">
+        <v>354</v>
+      </c>
+      <c r="L55" t="s">
+        <v>355</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>343</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>356</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>357</v>
+      </c>
+      <c r="J56" t="s">
+        <v>358</v>
+      </c>
+      <c r="K56" t="s">
+        <v>359</v>
+      </c>
+      <c r="L56" t="s">
+        <v>360</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>361</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>362</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" t="s">
+        <v>364</v>
+      </c>
+      <c r="K57" t="s">
+        <v>365</v>
+      </c>
+      <c r="L57" t="s">
+        <v>366</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>367</v>
+      </c>
+      <c r="O57" t="s">
+        <v>89</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>369</v>
+      </c>
+      <c r="J58" t="s">
+        <v>370</v>
+      </c>
+      <c r="K58" t="s">
+        <v>371</v>
+      </c>
+      <c r="L58" t="s">
+        <v>372</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>367</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>373</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>374</v>
+      </c>
+      <c r="J59" t="s">
+        <v>375</v>
+      </c>
+      <c r="K59" t="s">
+        <v>376</v>
+      </c>
+      <c r="L59" t="s">
+        <v>377</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s">
+        <v>367</v>
+      </c>
+      <c r="O59" t="s">
+        <v>89</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>378</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>379</v>
+      </c>
+      <c r="J60" t="s">
+        <v>380</v>
+      </c>
+      <c r="K60" t="s">
+        <v>381</v>
+      </c>
+      <c r="L60" t="s">
+        <v>382</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>367</v>
+      </c>
+      <c r="O60" t="s">
+        <v>60</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>383</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" t="s">
+        <v>385</v>
+      </c>
+      <c r="K61" t="s">
+        <v>386</v>
+      </c>
+      <c r="L61" t="s">
+        <v>387</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>367</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>389</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" t="s">
+        <v>391</v>
+      </c>
+      <c r="K62" t="s">
+        <v>392</v>
+      </c>
+      <c r="L62" t="s">
+        <v>393</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>367</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>394</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>395</v>
+      </c>
+      <c r="J63" t="s">
+        <v>396</v>
+      </c>
+      <c r="K63" t="s">
+        <v>397</v>
+      </c>
+      <c r="L63" t="s">
+        <v>398</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>367</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>399</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>400</v>
+      </c>
+      <c r="J64" t="s">
+        <v>401</v>
+      </c>
+      <c r="K64" t="s">
+        <v>402</v>
+      </c>
+      <c r="L64" t="s">
+        <v>403</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>404</v>
+      </c>
+      <c r="O64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>405</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>406</v>
+      </c>
+      <c r="J65" t="s">
+        <v>407</v>
+      </c>
+      <c r="K65" t="s">
+        <v>408</v>
+      </c>
+      <c r="L65" t="s">
+        <v>409</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>404</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>410</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>411</v>
+      </c>
+      <c r="J66" t="s">
+        <v>412</v>
+      </c>
+      <c r="K66" t="s">
+        <v>413</v>
+      </c>
+      <c r="L66" t="s">
+        <v>414</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>404</v>
+      </c>
+      <c r="O66" t="s">
+        <v>89</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>415</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>416</v>
+      </c>
+      <c r="J67" t="s">
+        <v>417</v>
+      </c>
+      <c r="K67" t="s">
+        <v>418</v>
+      </c>
+      <c r="L67" t="s">
+        <v>419</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>404</v>
+      </c>
+      <c r="O67" t="s">
+        <v>60</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>420</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>421</v>
+      </c>
+      <c r="J68" t="s">
+        <v>422</v>
+      </c>
+      <c r="K68" t="s">
+        <v>423</v>
+      </c>
+      <c r="L68" t="s">
+        <v>424</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>425</v>
+      </c>
+      <c r="O68" t="s">
+        <v>317</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>426</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" t="s">
+        <v>428</v>
+      </c>
+      <c r="K69" t="s">
+        <v>429</v>
+      </c>
+      <c r="L69" t="s">
+        <v>430</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>425</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>431</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>432</v>
+      </c>
+      <c r="J70" t="s">
+        <v>433</v>
+      </c>
+      <c r="K70" t="s">
+        <v>434</v>
+      </c>
+      <c r="L70" t="s">
+        <v>435</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>425</v>
+      </c>
+      <c r="O70" t="s">
+        <v>89</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="s"/>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>437</v>
+      </c>
+      <c r="J71" t="s">
+        <v>438</v>
+      </c>
+      <c r="K71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L71" t="s">
+        <v>440</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>425</v>
+      </c>
+      <c r="O71" t="s">
+        <v>89</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>441</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>442</v>
+      </c>
+      <c r="J72" t="s">
+        <v>443</v>
+      </c>
+      <c r="K72" t="s">
+        <v>444</v>
+      </c>
+      <c r="L72" t="s">
+        <v>445</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>425</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>446</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>447</v>
+      </c>
+      <c r="J73" t="s">
+        <v>448</v>
+      </c>
+      <c r="K73" t="s">
+        <v>449</v>
+      </c>
+      <c r="L73" t="s">
+        <v>450</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>425</v>
+      </c>
+      <c r="O73" t="s">
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>451</v>
+      </c>
+      <c r="X73" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>454</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>455</v>
+      </c>
+      <c r="J74" t="s">
+        <v>456</v>
+      </c>
+      <c r="K74" t="s">
+        <v>457</v>
+      </c>
+      <c r="L74" t="s">
+        <v>458</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>425</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>459</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>460</v>
+      </c>
+      <c r="J75" t="s">
+        <v>461</v>
+      </c>
+      <c r="K75" t="s">
+        <v>462</v>
+      </c>
+      <c r="L75" t="s">
+        <v>463</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>425</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>1</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>464</v>
+      </c>
+      <c r="X75" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>466</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>467</v>
+      </c>
+      <c r="J76" t="s">
+        <v>461</v>
+      </c>
+      <c r="K76" t="s">
+        <v>468</v>
+      </c>
+      <c r="L76" t="s">
+        <v>469</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>425</v>
+      </c>
+      <c r="O76" t="s">
+        <v>60</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>471</v>
+      </c>
+      <c r="J77" t="s">
+        <v>472</v>
+      </c>
+      <c r="K77" t="s">
+        <v>473</v>
+      </c>
+      <c r="L77" t="s">
+        <v>474</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>475</v>
+      </c>
+      <c r="O77" t="s">
+        <v>89</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>478</v>
+      </c>
+      <c r="J78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K78" t="s">
+        <v>480</v>
+      </c>
+      <c r="L78" t="s">
+        <v>481</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>475</v>
+      </c>
+      <c r="O78" t="s">
+        <v>89</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>482</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>483</v>
+      </c>
+      <c r="J79" t="s">
+        <v>484</v>
+      </c>
+      <c r="K79" t="s">
+        <v>485</v>
+      </c>
+      <c r="L79" t="s">
+        <v>486</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>475</v>
+      </c>
+      <c r="O79" t="s">
+        <v>89</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>487</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>488</v>
+      </c>
+      <c r="J80" t="s">
+        <v>489</v>
+      </c>
+      <c r="K80" t="s">
+        <v>490</v>
+      </c>
+      <c r="L80" t="s">
+        <v>491</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>492</v>
+      </c>
+      <c r="O80" t="s">
+        <v>89</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>493</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>494</v>
+      </c>
+      <c r="J81" t="s">
+        <v>495</v>
+      </c>
+      <c r="K81" t="s">
+        <v>496</v>
+      </c>
+      <c r="L81" t="s">
+        <v>497</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>492</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>498</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>499</v>
+      </c>
+      <c r="J82" t="s">
+        <v>500</v>
+      </c>
+      <c r="K82" t="s">
+        <v>501</v>
+      </c>
+      <c r="L82" t="s">
+        <v>502</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>492</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>503</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>504</v>
+      </c>
+      <c r="J83" t="s">
+        <v>505</v>
+      </c>
+      <c r="K83" t="s">
+        <v>506</v>
+      </c>
+      <c r="L83" t="s">
+        <v>507</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>492</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>508</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>509</v>
+      </c>
+      <c r="J84" t="s">
+        <v>510</v>
+      </c>
+      <c r="K84" t="s">
+        <v>511</v>
+      </c>
+      <c r="L84" t="s">
+        <v>512</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>513</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="s"/>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="s"/>
+      <c r="S84" t="s"/>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>514</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>515</v>
+      </c>
+      <c r="J85" t="s">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s">
+        <v>381</v>
+      </c>
+      <c r="L85" t="s">
+        <v>517</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>518</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>519</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>520</v>
+      </c>
+      <c r="J86" t="s">
+        <v>521</v>
+      </c>
+      <c r="K86" t="s">
+        <v>522</v>
+      </c>
+      <c r="L86" t="s">
+        <v>523</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>518</v>
+      </c>
+      <c r="O86" t="s">
+        <v>89</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>524</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>525</v>
+      </c>
+      <c r="J87" t="s">
+        <v>526</v>
+      </c>
+      <c r="K87" t="s">
+        <v>527</v>
+      </c>
+      <c r="L87" t="s">
+        <v>528</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>518</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>529</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>530</v>
+      </c>
+      <c r="J88" t="s">
+        <v>531</v>
+      </c>
+      <c r="K88" t="s">
+        <v>532</v>
+      </c>
+      <c r="L88" t="s">
+        <v>533</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>518</v>
+      </c>
+      <c r="O88" t="s">
+        <v>60</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>534</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>535</v>
+      </c>
+      <c r="J89" t="s">
+        <v>536</v>
+      </c>
+      <c r="K89" t="s">
+        <v>537</v>
+      </c>
+      <c r="L89" t="s">
+        <v>538</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>518</v>
+      </c>
+      <c r="O89" t="s">
+        <v>89</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>539</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>540</v>
+      </c>
+      <c r="J90" t="s">
+        <v>541</v>
+      </c>
+      <c r="K90" t="s">
+        <v>542</v>
+      </c>
+      <c r="L90" t="s">
+        <v>543</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>544</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>545</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>546</v>
+      </c>
+      <c r="J91" t="s">
+        <v>541</v>
+      </c>
+      <c r="K91" t="s">
+        <v>547</v>
+      </c>
+      <c r="L91" t="s">
+        <v>548</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>518</v>
+      </c>
+      <c r="O91" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>549</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>550</v>
+      </c>
+      <c r="J92" t="s">
+        <v>551</v>
+      </c>
+      <c r="K92" t="s">
+        <v>552</v>
+      </c>
+      <c r="L92" t="s">
+        <v>553</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>544</v>
+      </c>
+      <c r="O92" t="s">
+        <v>60</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>554</v>
+      </c>
+      <c r="X92" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>557</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>558</v>
+      </c>
+      <c r="J93" t="s">
+        <v>559</v>
+      </c>
+      <c r="K93" t="s">
+        <v>560</v>
+      </c>
+      <c r="L93" t="s">
+        <v>561</v>
+      </c>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>544</v>
+      </c>
+      <c r="O93" t="s">
+        <v>89</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>562</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>563</v>
+      </c>
+      <c r="J94" t="s">
+        <v>559</v>
+      </c>
+      <c r="K94" t="s">
+        <v>564</v>
+      </c>
+      <c r="L94" t="s">
+        <v>565</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s">
+        <v>544</v>
+      </c>
+      <c r="O94" t="s">
+        <v>77</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>1</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>1</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>566</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>567</v>
+      </c>
+      <c r="J95" t="s">
+        <v>568</v>
+      </c>
+      <c r="K95" t="s">
+        <v>569</v>
+      </c>
+      <c r="L95" t="s">
+        <v>570</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>571</v>
+      </c>
+      <c r="O95" t="s">
+        <v>89</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>5</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>572</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>573</v>
+      </c>
+      <c r="J96" t="s">
+        <v>574</v>
+      </c>
+      <c r="K96" t="s">
+        <v>575</v>
+      </c>
+      <c r="L96" t="s">
+        <v>576</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>571</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>577</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>578</v>
+      </c>
+      <c r="J97" t="s">
+        <v>579</v>
+      </c>
+      <c r="K97" t="s">
+        <v>580</v>
+      </c>
+      <c r="L97" t="s">
+        <v>581</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>571</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>582</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>583</v>
+      </c>
+      <c r="J98" t="s">
+        <v>584</v>
+      </c>
+      <c r="K98" t="s">
+        <v>585</v>
+      </c>
+      <c r="L98" t="s">
+        <v>586</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>571</v>
+      </c>
+      <c r="O98" t="s">
+        <v>89</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>587</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>588</v>
+      </c>
+      <c r="J99" t="s">
+        <v>589</v>
+      </c>
+      <c r="K99" t="s">
+        <v>590</v>
+      </c>
+      <c r="L99" t="s">
+        <v>591</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>592</v>
+      </c>
+      <c r="O99" t="s">
+        <v>77</v>
+      </c>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>594</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>595</v>
+      </c>
+      <c r="J100" t="s">
+        <v>596</v>
+      </c>
+      <c r="K100" t="s">
+        <v>597</v>
+      </c>
+      <c r="L100" t="s">
+        <v>598</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>592</v>
+      </c>
+      <c r="O100" t="s">
+        <v>89</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>599</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>600</v>
+      </c>
+      <c r="J101" t="s">
+        <v>601</v>
+      </c>
+      <c r="K101" t="s">
+        <v>602</v>
+      </c>
+      <c r="L101" t="s">
+        <v>603</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>592</v>
+      </c>
+      <c r="O101" t="s">
+        <v>89</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>5</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>604</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>605</v>
+      </c>
+      <c r="J102" t="s">
+        <v>606</v>
+      </c>
+      <c r="K102" t="s">
+        <v>607</v>
+      </c>
+      <c r="L102" t="s">
+        <v>608</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>592</v>
+      </c>
+      <c r="O102" t="s">
+        <v>89</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>609</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>610</v>
+      </c>
+      <c r="J103" t="s">
+        <v>611</v>
+      </c>
+      <c r="K103" t="s">
+        <v>612</v>
+      </c>
+      <c r="L103" t="s">
+        <v>613</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>592</v>
+      </c>
+      <c r="O103" t="s">
+        <v>53</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>614</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>615</v>
+      </c>
+      <c r="J104" t="s">
+        <v>616</v>
+      </c>
+      <c r="K104" t="s">
+        <v>617</v>
+      </c>
+      <c r="L104" t="s">
+        <v>618</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>619</v>
+      </c>
+      <c r="O104" t="s">
+        <v>89</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>5</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>620</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>621</v>
+      </c>
+      <c r="J105" t="s">
+        <v>622</v>
+      </c>
+      <c r="K105" t="s">
+        <v>163</v>
+      </c>
+      <c r="L105" t="s">
+        <v>623</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s">
+        <v>619</v>
+      </c>
+      <c r="O105" t="s">
+        <v>89</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>624</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>625</v>
+      </c>
+      <c r="J106" t="s">
+        <v>626</v>
+      </c>
+      <c r="K106" t="s">
+        <v>627</v>
+      </c>
+      <c r="L106" t="s">
+        <v>628</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>619</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>629</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>630</v>
+      </c>
+      <c r="J107" t="s">
+        <v>631</v>
+      </c>
+      <c r="K107" t="s">
+        <v>632</v>
+      </c>
+      <c r="L107" t="s">
+        <v>633</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>619</v>
+      </c>
+      <c r="O107" t="s">
+        <v>89</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>634</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>635</v>
+      </c>
+      <c r="J108" t="s">
+        <v>636</v>
+      </c>
+      <c r="K108" t="s">
+        <v>637</v>
+      </c>
+      <c r="L108" t="s">
+        <v>638</v>
+      </c>
+      <c r="M108" t="n">
+        <v>5</v>
+      </c>
+      <c r="N108" t="s">
+        <v>619</v>
+      </c>
+      <c r="O108" t="s">
+        <v>89</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="s"/>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>554</v>
+      </c>
+      <c r="X108" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>640</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>641</v>
+      </c>
+      <c r="J109" t="s">
+        <v>642</v>
+      </c>
+      <c r="K109" t="s">
+        <v>643</v>
+      </c>
+      <c r="L109" t="s">
+        <v>644</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>645</v>
+      </c>
+      <c r="O109" t="s">
+        <v>77</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>646</v>
+      </c>
+      <c r="X109" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>649</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>650</v>
+      </c>
+      <c r="J110" t="s">
+        <v>651</v>
+      </c>
+      <c r="K110" t="s">
+        <v>652</v>
+      </c>
+      <c r="L110" t="s">
+        <v>653</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="s">
+        <v>645</v>
+      </c>
+      <c r="O110" t="s">
+        <v>89</v>
+      </c>
+      <c r="P110" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>3</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>1</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>654</v>
+      </c>
+      <c r="X110" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>656</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>657</v>
+      </c>
+      <c r="J111" t="s">
+        <v>658</v>
+      </c>
+      <c r="K111" t="s">
+        <v>659</v>
+      </c>
+      <c r="L111" t="s">
+        <v>660</v>
+      </c>
+      <c r="M111" t="n">
+        <v>5</v>
+      </c>
+      <c r="N111" t="s">
+        <v>661</v>
+      </c>
+      <c r="O111" t="s">
+        <v>89</v>
+      </c>
+      <c r="P111" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>4</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>646</v>
+      </c>
+      <c r="X111" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>63413</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>663</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>664</v>
+      </c>
+      <c r="J112" t="s">
+        <v>665</v>
+      </c>
+      <c r="K112" t="s">
+        <v>666</v>
+      </c>
+      <c r="L112" t="s">
+        <v>667</v>
+      </c>
+      <c r="M112" t="n">
+        <v>5</v>
+      </c>
+      <c r="N112" t="s">
+        <v>661</v>
+      </c>
+      <c r="O112" t="s">
+        <v>89</v>
+      </c>
+      <c r="P112" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>5</v>
+      </c>
+      <c r="R112" t="n">
+        <v>5</v>
+      </c>
+      <c r="S112" t="n">
+        <v>5</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>5</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s">
+        <v>646</v>
+      </c>
+      <c r="X112" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y112" t="s">
+        <v>668</v>
       </c>
     </row>
   </sheetData>
